--- a/LegoPaint/Database/1x1_LegoColors - OWN.xlsx
+++ b/LegoPaint/Database/1x1_LegoColors - OWN.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\qr-art.github.io\LegoPaint\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E8481FCC-718D-46D1-8874-C72A8BAE59BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9937FA2-6EE3-4590-84B4-70F4FB8C1BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-5916" yWindow="3660" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1x1_LegoColors - OWN" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -274,7 +286,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1136,23 +1148,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -1178,7 +1190,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>212121</v>
       </c>
@@ -1202,11 +1214,11 @@
         <v>418</v>
       </c>
       <c r="N2">
-        <f>H2-K2</f>
+        <f t="shared" ref="N2:N39" si="0">H2-K2</f>
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -1217,16 +1229,16 @@
         <v>24</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H39" si="0">D3+E3+F3</f>
+        <f t="shared" ref="H3:H39" si="1">D3+E3+F3</f>
         <v>0</v>
       </c>
       <c r="K3" s="3"/>
       <c r="N3">
-        <f>H3-K3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
@@ -1243,18 +1255,18 @@
         <v>10</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="K4" s="3">
         <v>3</v>
       </c>
       <c r="N4">
-        <f>H4-K4</f>
+        <f t="shared" si="0"/>
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>66</v>
       </c>
@@ -1265,16 +1277,16 @@
         <v>67</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5" s="3"/>
       <c r="N5">
-        <f>H5-K5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>60</v>
       </c>
@@ -1285,16 +1297,16 @@
         <v>61</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K6" s="3"/>
       <c r="N6">
-        <f>H6-K6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>64</v>
       </c>
@@ -1308,18 +1320,18 @@
         <v>100</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="K7" s="3">
         <v>2</v>
       </c>
       <c r="N7">
-        <f>H7-K7</f>
+        <f t="shared" si="0"/>
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>72</v>
       </c>
@@ -1333,16 +1345,16 @@
         <v>10</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="K8" s="3"/>
       <c r="N8">
-        <f>H8-K8</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
@@ -1353,16 +1365,16 @@
         <v>41</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K9" s="3"/>
       <c r="N9">
-        <f>H9-K9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>243757</v>
       </c>
@@ -1379,18 +1391,18 @@
         <v>100</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>320</v>
       </c>
       <c r="K10" s="3">
         <v>216</v>
       </c>
       <c r="N10">
-        <f>H10-K10</f>
+        <f t="shared" si="0"/>
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1407,18 +1419,18 @@
         <v>50</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>750</v>
       </c>
       <c r="K11" s="3">
         <v>635</v>
       </c>
       <c r="N11">
-        <f>H11-K11</f>
+        <f t="shared" si="0"/>
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -1432,18 +1444,18 @@
         <v>830</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>830</v>
       </c>
       <c r="K12" s="3">
         <v>758</v>
       </c>
       <c r="N12">
-        <f>H12-K12</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -1460,18 +1472,18 @@
         <v>100</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="K13" s="3">
         <v>104</v>
       </c>
       <c r="N13">
-        <f>H13-K13</f>
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -1482,16 +1494,16 @@
         <v>33</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K14" s="3"/>
       <c r="N14">
-        <f>H14-K14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
@@ -1502,16 +1514,16 @@
         <v>47</v>
       </c>
       <c r="H15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K15" s="3"/>
       <c r="N15">
-        <f>H15-K15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -1522,16 +1534,16 @@
         <v>45</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K16" s="3"/>
       <c r="N16">
-        <f>H16-K16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -1542,16 +1554,16 @@
         <v>5</v>
       </c>
       <c r="H17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K17" s="3"/>
       <c r="N17">
-        <f>H17-K17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>68</v>
       </c>
@@ -1568,18 +1580,18 @@
         <v>973</v>
       </c>
       <c r="H18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1073</v>
       </c>
       <c r="K18" s="3">
         <v>1025</v>
       </c>
       <c r="N18">
-        <f>H18-K18</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
@@ -1590,16 +1602,16 @@
         <v>49</v>
       </c>
       <c r="H19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K19" s="3"/>
       <c r="N19">
-        <f>H19-K19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1610,16 +1622,16 @@
         <v>15</v>
       </c>
       <c r="H20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K20" s="3"/>
       <c r="N20">
-        <f>H20-K20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -1630,16 +1642,16 @@
         <v>31</v>
       </c>
       <c r="H21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K21" s="3"/>
       <c r="N21">
-        <f>H21-K21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>58</v>
       </c>
@@ -1653,18 +1665,18 @@
         <v>100</v>
       </c>
       <c r="H22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>24</v>
       </c>
       <c r="N22">
-        <f>H22-K22</f>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -1678,18 +1690,18 @@
         <v>226</v>
       </c>
       <c r="H23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>226</v>
       </c>
       <c r="K23" s="3">
         <v>150</v>
       </c>
       <c r="N23">
-        <f>H23-K23</f>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -1706,18 +1718,18 @@
         <v>70</v>
       </c>
       <c r="H24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>190</v>
       </c>
       <c r="K24" s="3">
         <v>118</v>
       </c>
       <c r="N24">
-        <f>H24-K24</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
@@ -1728,16 +1740,16 @@
         <v>43</v>
       </c>
       <c r="H25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K25" s="3"/>
       <c r="N25">
-        <f>H25-K25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -1748,16 +1760,16 @@
         <v>55</v>
       </c>
       <c r="H26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K26" s="3"/>
       <c r="N26">
-        <f>H26-K26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -1768,16 +1780,16 @@
         <v>53</v>
       </c>
       <c r="H27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K27" s="3"/>
       <c r="N27">
-        <f>H27-K27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>70</v>
       </c>
@@ -1794,18 +1806,18 @@
         <v>100</v>
       </c>
       <c r="H28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>220</v>
       </c>
       <c r="K28" s="3">
         <v>114</v>
       </c>
       <c r="N28">
-        <f>H28-K28</f>
+        <f t="shared" si="0"/>
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>18</v>
       </c>
@@ -1819,18 +1831,18 @@
         <v>10</v>
       </c>
       <c r="H29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="K29" s="3">
         <v>3</v>
       </c>
       <c r="N29">
-        <f>H29-K29</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -1844,18 +1856,18 @@
         <v>120</v>
       </c>
       <c r="H30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="K30" s="3">
         <v>54</v>
       </c>
       <c r="N30">
-        <f>H30-K30</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>62</v>
       </c>
@@ -1869,18 +1881,18 @@
         <v>120</v>
       </c>
       <c r="H31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="K31" s="3">
         <v>32</v>
       </c>
       <c r="N31">
-        <f>H31-K31</f>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
@@ -1891,16 +1903,16 @@
         <v>13</v>
       </c>
       <c r="H32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K32" s="3"/>
       <c r="N32">
-        <f>H32-K32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>56</v>
       </c>
@@ -1911,16 +1923,16 @@
         <v>57</v>
       </c>
       <c r="H33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K33" s="3"/>
       <c r="N33">
-        <f>H33-K33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
@@ -1934,16 +1946,16 @@
         <v>100</v>
       </c>
       <c r="H34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="K34" s="3"/>
       <c r="N34">
-        <f>H34-K34</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -1960,18 +1972,18 @@
         <v>176</v>
       </c>
       <c r="H35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>276</v>
       </c>
       <c r="K35" s="3">
         <v>184</v>
       </c>
       <c r="N35">
-        <f>H35-K35</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
@@ -1988,18 +2000,18 @@
         <v>80</v>
       </c>
       <c r="H36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>280</v>
       </c>
       <c r="K36" s="3">
         <v>192</v>
       </c>
       <c r="N36">
-        <f>H36-K36</f>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>25</v>
       </c>
@@ -2016,18 +2028,18 @@
         <v>100</v>
       </c>
       <c r="H37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>350</v>
       </c>
       <c r="K37" s="3">
         <v>258</v>
       </c>
       <c r="N37">
-        <f>H37-K37</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
@@ -2047,11 +2059,11 @@
         <v>4926</v>
       </c>
       <c r="N38">
-        <f>H38-K38</f>
+        <f t="shared" si="0"/>
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>21</v>
       </c>
@@ -2062,16 +2074,16 @@
         <v>22</v>
       </c>
       <c r="H39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K39" s="3"/>
       <c r="N39">
-        <f>H39-K39</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M40" t="s">
         <v>82</v>
       </c>

--- a/LegoPaint/Database/1x1_LegoColors - OWN.xlsx
+++ b/LegoPaint/Database/1x1_LegoColors - OWN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\qr-art.github.io\LegoPaint\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9937FA2-6EE3-4590-84B4-70F4FB8C1BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FD633B-2F5C-4D3C-86F7-6C7B6D111723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5916" yWindow="3660" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1x1_LegoColors - OWN" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
   <si>
     <t>E3A05B</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>TOT</t>
+  </si>
+  <si>
+    <t>NEW PRICE</t>
   </si>
 </sst>
 </file>
@@ -1149,22 +1152,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -1190,7 +1194,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>212121</v>
       </c>
@@ -1218,7 +1222,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -1238,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
@@ -1266,7 +1270,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>66</v>
       </c>
@@ -1286,7 +1290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>60</v>
       </c>
@@ -1306,7 +1310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>64</v>
       </c>
@@ -1331,7 +1335,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>72</v>
       </c>
@@ -1354,7 +1358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
@@ -1374,7 +1378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>243757</v>
       </c>
@@ -1402,7 +1406,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1430,7 +1434,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -1455,7 +1459,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -1483,7 +1487,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -1503,7 +1507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
@@ -1523,7 +1527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -1543,7 +1547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -1563,7 +1567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>68</v>
       </c>
@@ -1591,7 +1595,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
@@ -1611,7 +1615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1631,7 +1635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -1651,7 +1655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>58</v>
       </c>
@@ -1676,7 +1680,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -1701,7 +1705,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -1729,7 +1733,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
@@ -1749,7 +1753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -1769,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -1789,7 +1793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>70</v>
       </c>
@@ -1817,7 +1821,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>18</v>
       </c>
@@ -1842,7 +1846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -1867,7 +1871,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>62</v>
       </c>
@@ -1892,7 +1896,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
@@ -1912,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>56</v>
       </c>
@@ -1932,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
@@ -1955,7 +1959,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -1983,7 +1987,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
@@ -2011,7 +2015,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>25</v>
       </c>
@@ -2039,7 +2043,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
@@ -2063,7 +2067,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>21</v>
       </c>
@@ -2083,13 +2087,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
+        <v>82</v>
+      </c>
+      <c r="K40">
+        <f>SUM(K2:K39)</f>
+        <v>9216</v>
+      </c>
       <c r="M40" t="s">
         <v>82</v>
       </c>
       <c r="N40">
         <f>SUM(N2:N39)</f>
         <v>1869</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K43">
+        <f>Q43*K40</f>
+        <v>552.96</v>
+      </c>
+      <c r="N43">
+        <f>Q43*N40</f>
+        <v>112.14</v>
+      </c>
+      <c r="Q43">
+        <f>0.06</f>
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
